--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2641087.509285171</v>
+        <v>-2643992.381432325</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>135.1113520880164</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>343.2241641531936</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>145.220926807855</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>147.525111173458</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -865,13 +865,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>205.3743261851591</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>279.5106614771179</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>163.939837924303</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>284.6200697443034</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>43.60620160013897</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>118.0056219508405</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>14.53542847584207</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>62.13252843220821</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>165.0140383262352</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>116.9979730949161</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>18.70843787977262</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F25" t="n">
         <v>121.1364005308915</v>
@@ -2491,10 +2491,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S25" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T25" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V25" t="n">
         <v>227.8529958317883</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541843</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652651</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>42.09059921808195</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T28" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808158</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3664,10 +3664,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808202</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652576</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400.6340567225802</v>
+        <v>343.8850710454934</v>
       </c>
       <c r="C2" t="n">
-        <v>400.6340567225802</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="D2" t="n">
-        <v>400.6340567225802</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E2" t="n">
-        <v>400.6340567225802</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F2" t="n">
-        <v>400.6340567225802</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1846.858656616621</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1494.090001346507</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1120.624243085427</v>
       </c>
       <c r="Y2" t="n">
-        <v>787.233896786702</v>
+        <v>730.4849111096153</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4513,10 +4513,10 @@
         <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U4" t="n">
         <v>53.94298182036445</v>
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1156.179761166176</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="C5" t="n">
-        <v>1156.179761166176</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D5" t="n">
-        <v>797.9140625594257</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491378</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X5" t="n">
-        <v>1542.779601230298</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y5" t="n">
-        <v>1542.779601230298</v>
+        <v>2100.863596243066</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>323.2572191628421</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U7" t="n">
-        <v>323.2572191628421</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>323.2572191628421</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>981.3140028591404</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C8" t="n">
-        <v>612.3514859187287</v>
+        <v>880.7499412272343</v>
       </c>
       <c r="D8" t="n">
-        <v>612.3514859187287</v>
+        <v>522.4842426204839</v>
       </c>
       <c r="E8" t="n">
-        <v>597.6692349330297</v>
+        <v>136.6959900222396</v>
       </c>
       <c r="F8" t="n">
-        <v>590.7237341838262</v>
+        <v>129.7504892730362</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>116.7031115498677</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2072.442488527913</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1741.379601184342</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1741.379601184342</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1367.913842923262</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1367.913842923262</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4890,7 +4890,7 @@
         <v>258.7803994994155</v>
       </c>
       <c r="M9" t="n">
-        <v>899.3257489665201</v>
+        <v>764.6264059403564</v>
       </c>
       <c r="N9" t="n">
         <v>1432.170805967367</v>
@@ -4984,25 +4984,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="U10" t="n">
-        <v>764.7254868573889</v>
+        <v>426.8072408291969</v>
       </c>
       <c r="V10" t="n">
-        <v>510.040998651502</v>
+        <v>172.12275262331</v>
       </c>
       <c r="W10" t="n">
-        <v>220.6238286145414</v>
+        <v>172.12275262331</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>172.12275262331</v>
       </c>
       <c r="Y10" t="n">
         <v>53.94298182036445</v>
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5048,10 +5048,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5072,19 +5072,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,10 +5291,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5364,7 +5364,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5416,13 +5416,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5653,19 +5653,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5786,10 +5786,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5835,16 +5835,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5887,19 +5887,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6072,13 +6072,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D25" t="n">
         <v>656.9646031150023</v>
@@ -6133,7 +6133,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G25" t="n">
         <v>268.5553036345476</v>
@@ -6148,10 +6148,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K25" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6169,7 +6169,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R25" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S25" t="n">
         <v>2438.456847547834</v>
@@ -6178,16 +6178,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V25" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W25" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y25" t="n">
         <v>1084.076049400516</v>
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6309,13 +6309,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D28" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384027</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N28" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q28" t="n">
         <v>2639.297491717215</v>
@@ -6415,10 +6415,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6449,19 +6449,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6601,64 +6601,64 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
         <v>1280.338681582389</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6783,7 +6783,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
         <v>680.0291294438176</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345477</v>
@@ -6856,13 +6856,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,16 +6880,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6898,7 +6898,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7020,10 +7020,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
         <v>782.5512955656818</v>
@@ -7090,13 +7090,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7260,10 +7260,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,13 +7327,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7573,7 +7573,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,7 +7588,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
         <v>533.5814564942654</v>
@@ -7795,22 +7795,22 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,16 +7837,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8538,10 +8538,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>329.6451212993295</v>
       </c>
       <c r="N9" t="n">
-        <v>337.5639548971532</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>230.1615396829912</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22556,16 +22556,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>70.56000586760142</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22720,13 +22720,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22756,10 +22756,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>19.6607792729252</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>6.771212764859854</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>127.7255247667966</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1417386.10117761</v>
+        <v>1417386.101177609</v>
       </c>
     </row>
     <row r="9">
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26433,16 +26433,16 @@
         <v>5677.536566682744</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="I4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.39582977622</v>
       </c>
       <c r="J4" t="n">
         <v>13668.39582977622</v>
       </c>
       <c r="K4" t="n">
-        <v>13668.39582977622</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="L4" t="n">
         <v>13668.39582977621</v>
@@ -26454,10 +26454,10 @@
         <v>13668.39582977621</v>
       </c>
       <c r="O4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.3958297762</v>
       </c>
       <c r="P4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.39582977623</v>
       </c>
     </row>
     <row r="5">
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-776747.2438691661</v>
+        <v>-777211.5406611908</v>
       </c>
       <c r="C6" t="n">
         <v>-292781.4935264428</v>
       </c>
       <c r="D6" t="n">
-        <v>-448585.2996202377</v>
+        <v>-448585.2996202378</v>
       </c>
       <c r="E6" t="n">
-        <v>-877852.7577713962</v>
+        <v>-877887.4956968318</v>
       </c>
       <c r="F6" t="n">
-        <v>-106800.0663905899</v>
+        <v>-106834.8043160255</v>
       </c>
       <c r="G6" t="n">
-        <v>-106800.0663905899</v>
+        <v>-106834.8043160255</v>
       </c>
       <c r="H6" t="n">
-        <v>-106800.0663905899</v>
+        <v>-106834.8043160255</v>
       </c>
       <c r="I6" t="n">
         <v>-136260.2296773234</v>
@@ -26561,7 +26561,7 @@
         <v>-116832.5116836916</v>
       </c>
       <c r="P6" t="n">
-        <v>-116832.5116836916</v>
+        <v>-116832.5116836917</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26926,28 +26926,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203972</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203973</v>
-      </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.460698725481052e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>182.5313316622799</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>238.7128274825956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>217.9905321479588</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>101.6178689117502</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -27828,13 +27828,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>242.6756726418388</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>168.5173763857505</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>367.3949415964197</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>252.9083556430074</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>60.69561706280197</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>101.5866802571787</v>
       </c>
     </row>
     <row r="11">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32084,10 +32084,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N15" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32555,19 +32555,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>550.5977692975241</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32792,16 +32792,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33029,7 +33029,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>688.8020111197787</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33424,7 +33424,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M32" t="n">
         <v>965.6463440175675</v>
@@ -33503,10 +33503,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33740,13 +33740,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33980,13 +33980,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35258,10 +35258,10 @@
         <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>510.9555620615566</v>
       </c>
       <c r="N9" t="n">
-        <v>538.2273303038852</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35431,7 +35431,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,10 +35732,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N15" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -36139,10 +36139,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>416.6233618831939</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36373,13 +36373,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36598,7 +36598,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>546.2057666753343</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37151,10 +37151,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37628,13 +37628,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
